--- a/Unity/Assets/Config/Excel/WordBarConfig.xlsx
+++ b/Unity/Assets/Config/Excel/WordBarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="13380"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>XueXiKangXing</t>
+  </si>
+  <si>
+    <t>MaxAttackDistance</t>
+  </si>
+  <si>
+    <t>FixedValueAttribute</t>
+  </si>
+  <si>
+    <t>MaxTrackDistance</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.8"/>
+      <color rgb="FF66C3CC"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -317,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +361,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,91 +672,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,10 +759,10 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,10 +771,10 @@
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,10 +783,10 @@
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,10 +795,10 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,11 +807,17 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,6 +859,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1180,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G26"/>
+  <dimension ref="C3:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1538,6 +1573,34 @@
         <v>28</v>
       </c>
     </row>
+    <row r="27" ht="13.5" spans="3:6">
+      <c r="C27" s="16">
+        <v>122</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" spans="3:6">
+      <c r="C28" s="16">
+        <v>123</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
